--- a/docs/attack-excel-files/v18.0/ics-attack/ics-attack-v18.0-campaigns.xlsx
+++ b/docs/attack-excel-files/v18.0/ics-attack/ics-attack-v18.0-campaigns.xlsx
@@ -279,7 +279,7 @@
     <t>(Citation: Lisa Zahner December 2023)</t>
   </si>
   <si>
-    <t>(Citation: Booz Allen Hamilton),(Citation: Charles McLellan March 2016),(Citation: Andy Greenberg June 2017),(Citation: Ukraine15 - EISAC - 201603),(Citation: Booz Allen Hamilton),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Andy Greenberg June 2017)</t>
+    <t>(Citation: Booz Allen Hamilton),(Citation: Charles McLellan March 2016),(Citation: Andy Greenberg June 2017),(Citation: Booz Allen Hamilton),(Citation: Ukraine15 - EISAC - 201603),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Andy Greenberg June 2017)</t>
   </si>
   <si>
     <t>(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Joe Slowik August 2019)</t>
@@ -294,10 +294,10 @@
     <t>,(Citation: Marshall Abrams July 2008),</t>
   </si>
   <si>
-    <t>(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TEMP.Veles 2018),(Citation: FireEye TRITON 2018),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TEMP.Veles 2018),(Citation: Triton-EENews-2017),(Citation: FireEye TRITON 2018),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TEMP.Veles 2018)</t>
-  </si>
-  <si>
-    <t>,(Citation: Frank Bajak and Marc Levy December 2023),(Citation: CISA Unitronics November 2023),(Citation: Jamie Tarabay and Katrina Manson December 2023),(Citation: WPXI Aliquippa Water November 2023),(Citation: Lisa Zahner December 2023),(Citation: CISA AA23-335A IRGC-Affiliated December 2023),(Citation: CISA AA23-335A IRGC-Affiliated December 2023)</t>
+    <t>(Citation: FireEye TEMP.Veles 2018),(Citation: FireEye TRITON 2018),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TEMP.Veles 2018),(Citation: Triton-EENews-2017),(Citation: FireEye TRITON 2018),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TEMP.Veles 2018),(Citation: FireEye TRITON Dec 2017)</t>
+  </si>
+  <si>
+    <t>,(Citation: WPXI Aliquippa Water November 2023),(Citation: Lisa Zahner December 2023),(Citation: CISA Unitronics November 2023),(Citation: CISA AA23-335A IRGC-Affiliated December 2023),(Citation: Frank Bajak and Marc Levy December 2023),(Citation: Jamie Tarabay and Katrina Manson December 2023),(Citation: CISA AA23-335A IRGC-Affiliated December 2023)</t>
   </si>
   <si>
     <t>source ID</t>

--- a/docs/attack-excel-files/v18.0/ics-attack/ics-attack-v18.0-campaigns.xlsx
+++ b/docs/attack-excel-files/v18.0/ics-attack/ics-attack-v18.0-campaigns.xlsx
@@ -279,10 +279,10 @@
     <t>(Citation: Lisa Zahner December 2023)</t>
   </si>
   <si>
-    <t>(Citation: Booz Allen Hamilton),(Citation: Charles McLellan March 2016),(Citation: Andy Greenberg June 2017),(Citation: Booz Allen Hamilton),(Citation: Ukraine15 - EISAC - 201603),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Andy Greenberg June 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Joe Slowik August 2019)</t>
+    <t>(Citation: Booz Allen Hamilton),(Citation: Ukraine15 - EISAC - 201603),(Citation: Booz Allen Hamilton),(Citation: Andy Greenberg June 2017),(Citation: Charles McLellan March 2016),(Citation: Andy Greenberg June 2017),(Citation: US District Court Indictment GRU Unit 74455 October 2020)</t>
+  </si>
+  <si>
+    <t>(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: Joe Slowik August 2019),(Citation: US District Court Indictment GRU Unit 74455 October 2020)</t>
   </si>
   <si>
     <t>,(Citation: Mandiant-Sandworm-Ukraine-2022),(Citation: Mandiant-Sandworm-Ukraine-2022),(Citation: Dragos-Sandworm-Ukraine-2022)</t>
@@ -294,10 +294,10 @@
     <t>,(Citation: Marshall Abrams July 2008),</t>
   </si>
   <si>
-    <t>(Citation: FireEye TEMP.Veles 2018),(Citation: FireEye TRITON 2018),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TEMP.Veles 2018),(Citation: Triton-EENews-2017),(Citation: FireEye TRITON 2018),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TEMP.Veles 2018),(Citation: FireEye TRITON Dec 2017)</t>
-  </si>
-  <si>
-    <t>,(Citation: WPXI Aliquippa Water November 2023),(Citation: Lisa Zahner December 2023),(Citation: CISA Unitronics November 2023),(Citation: CISA AA23-335A IRGC-Affiliated December 2023),(Citation: Frank Bajak and Marc Levy December 2023),(Citation: Jamie Tarabay and Katrina Manson December 2023),(Citation: CISA AA23-335A IRGC-Affiliated December 2023)</t>
+    <t>(Citation: FireEye TRITON 2018),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TEMP.Veles 2018),(Citation: FireEye TRITON Dec 2017),(Citation: Triton-EENews-2017),(Citation: FireEye TRITON 2018),(Citation: FireEye TEMP.Veles 2018),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TEMP.Veles 2018)</t>
+  </si>
+  <si>
+    <t>,(Citation: Jamie Tarabay and Katrina Manson December 2023),(Citation: CISA AA23-335A IRGC-Affiliated December 2023),(Citation: Frank Bajak and Marc Levy December 2023),(Citation: Lisa Zahner December 2023),(Citation: WPXI Aliquippa Water November 2023),(Citation: CISA Unitronics November 2023),(Citation: CISA AA23-335A IRGC-Affiliated December 2023)</t>
   </si>
   <si>
     <t>source ID</t>

--- a/docs/attack-excel-files/v18.0/ics-attack/ics-attack-v18.0-campaigns.xlsx
+++ b/docs/attack-excel-files/v18.0/ics-attack/ics-attack-v18.0-campaigns.xlsx
@@ -279,13 +279,13 @@
     <t>(Citation: Lisa Zahner December 2023)</t>
   </si>
   <si>
-    <t>(Citation: Booz Allen Hamilton),(Citation: Ukraine15 - EISAC - 201603),(Citation: Booz Allen Hamilton),(Citation: Andy Greenberg June 2017),(Citation: Charles McLellan March 2016),(Citation: Andy Greenberg June 2017),(Citation: US District Court Indictment GRU Unit 74455 October 2020)</t>
-  </si>
-  <si>
-    <t>(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: Joe Slowik August 2019),(Citation: US District Court Indictment GRU Unit 74455 October 2020)</t>
-  </si>
-  <si>
-    <t>,(Citation: Mandiant-Sandworm-Ukraine-2022),(Citation: Mandiant-Sandworm-Ukraine-2022),(Citation: Dragos-Sandworm-Ukraine-2022)</t>
+    <t>(Citation: Booz Allen Hamilton),(Citation: Andy Greenberg June 2017),(Citation: Booz Allen Hamilton),(Citation: Charles McLellan March 2016),(Citation: Ukraine15 - EISAC - 201603),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Andy Greenberg June 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: Dragos Crashoverride 2018),(Citation: ESET Industroyer),(Citation: US District Court Indictment GRU Unit 74455 October 2020),(Citation: Joe Slowik August 2019)</t>
+  </si>
+  <si>
+    <t>,(Citation: Mandiant-Sandworm-Ukraine-2022),(Citation: Dragos-Sandworm-Ukraine-2022),(Citation: Mandiant-Sandworm-Ukraine-2022)</t>
   </si>
   <si>
     <t>(Citation: Dragos FROSTYGOOP 2024),(Citation: Dragos FROSTYGOOP 2024),</t>
@@ -294,10 +294,10 @@
     <t>,(Citation: Marshall Abrams July 2008),</t>
   </si>
   <si>
-    <t>(Citation: FireEye TRITON 2018),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TEMP.Veles 2018),(Citation: FireEye TRITON Dec 2017),(Citation: Triton-EENews-2017),(Citation: FireEye TRITON 2018),(Citation: FireEye TEMP.Veles 2018),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TEMP.Veles 2018)</t>
-  </si>
-  <si>
-    <t>,(Citation: Jamie Tarabay and Katrina Manson December 2023),(Citation: CISA AA23-335A IRGC-Affiliated December 2023),(Citation: Frank Bajak and Marc Levy December 2023),(Citation: Lisa Zahner December 2023),(Citation: WPXI Aliquippa Water November 2023),(Citation: CISA Unitronics November 2023),(Citation: CISA AA23-335A IRGC-Affiliated December 2023)</t>
+    <t>(Citation: FireEye TRITON 2018),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TEMP.Veles 2018),(Citation: Triton-EENews-2017),(Citation: FireEye TRITON 2018),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TEMP.Veles 2018),(Citation: FireEye TRITON Dec 2017),(Citation: FireEye TEMP.Veles 2018)</t>
+  </si>
+  <si>
+    <t>,(Citation: WPXI Aliquippa Water November 2023),(Citation: Jamie Tarabay and Katrina Manson December 2023),(Citation: Lisa Zahner December 2023),(Citation: CISA Unitronics November 2023),(Citation: CISA AA23-335A IRGC-Affiliated December 2023),(Citation: Frank Bajak and Marc Levy December 2023),(Citation: CISA AA23-335A IRGC-Affiliated December 2023)</t>
   </si>
   <si>
     <t>source ID</t>
